--- a/tests/workbook.xlsx
+++ b/tests/workbook.xlsx
@@ -159,7 +159,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="28.06"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="2" style="0" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
